--- a/inst/extdata/class_map.xlsx
+++ b/inst/extdata/class_map.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
   <si>
-    <t xml:space="preserve">Lipid.Maps.Main.Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LipidCategoryOrClass</t>
+    <t xml:space="preserve">LipidMapsCategoryOrClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EposmolCategoryOrClass</t>
   </si>
   <si>
     <t xml:space="preserve">FA</t>
@@ -181,10 +181,10 @@
     <t xml:space="preserve">CL</t>
   </si>
   <si>
-    <t xml:space="preserve">#DLCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#LCL</t>
+    <t xml:space="preserve">DLCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCL</t>
   </si>
   <si>
     <t xml:space="preserve">PS-N</t>
@@ -307,6 +307,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -391,10 +392,10 @@
   <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>

--- a/inst/extdata/class_map.xlsx
+++ b/inst/extdata/class_map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="91">
   <si>
     <t xml:space="preserve">LipidMapsCategoryOrClass</t>
   </si>
@@ -28,271 +28,271 @@
     <t xml:space="preserve">EposmolCategoryOrClass</t>
   </si>
   <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docosanoids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eicosanoids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CerIP</t>
+  </si>
+  <si>
     <t xml:space="preserve">FA</t>
   </si>
   <si>
+    <t xml:space="preserve">FAHFA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydroxylated Cer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cer OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M(IP)2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Octanoids</t>
   </si>
   <si>
-    <t xml:space="preserve">FA mod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eicosanoids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docosanoids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoA</t>
+    <t xml:space="preserve">oxPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-mod PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-Glu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-GluA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-GluK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-HNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-isoLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-MDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-N[Alk]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-N[FA]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP(3')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP(4')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP(5')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP2(3',4')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP2(3',5‘)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP2(4',5‘)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIP3(3',4',5‘)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS-CAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS-MDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS-N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS-N[Alk]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS-N[FA]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WD</t>
   </si>
   <si>
     <t xml:space="preserve">WE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAHFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP(3')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP(4')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP(5')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP2(3',4')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP2(3',5‘)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP2(4',5‘)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIP3(3',4' )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-mod PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS-N[Alk]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS-N[FA]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS-CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS-MDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-N[Alk]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-N[FA]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-CAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-Glu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-GluA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-GluK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-CE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-MDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-HNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-isoLG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPBP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CerIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M(IP)2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hydroxylated Cer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cer OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA</t>
   </si>
 </sst>
 </file>
@@ -381,6 +381,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -389,13 +398,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.08"/>
@@ -430,676 +439,639 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
